--- a/forecast_app/tests/scores/20170423-gam_lag1_tops3-20170525-small.cdc-hand-calc.xlsx
+++ b/forecast_app/tests/scores/20170423-gam_lag1_tops3-20170525-small.cdc-hand-calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cornell/IdeaProjects/forecast-repository/forecast_app/tests/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BCCF16-422F-6340-8CF0-18754B77A50D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBC8ABD-1DC6-D441-89EB-0418C72425DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="13660" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="14580" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20170423-gam_lag1_tops3-2017052" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="26">
   <si>
     <t>location</t>
   </si>
@@ -85,20 +85,29 @@
     <t>v</t>
   </si>
   <si>
-    <t>NO MATCH</t>
-  </si>
-  <si>
     <t>log_single_bin</t>
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>pit</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>NB: this line from template! It doesn't exist in data. We use 0 instead of NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +246,23 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -583,10 +609,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -942,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,9 +989,10 @@
     <col min="8" max="8" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,10 +1021,13 @@
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1051,7 @@
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1109,12 @@
         <f>LN(G4)</f>
         <v>-0.85802182375017932</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="1">
+        <f>(G3*2+G4)/2</f>
+        <v>0.78799999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1132,8 +1169,12 @@
         <f>LN(G6)</f>
         <v>-1.1026203100656484</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="1">
+        <f>(0*2+G6)/2</f>
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1266,8 +1307,12 @@
         <f>LN(G11)</f>
         <v>-6.2146080984221914</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="1">
+        <f>(SUM(G9:G10)*2+G11)/2</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1348,8 +1393,12 @@
         <f>LN(G14)</f>
         <v>-0.16605458433008269</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="1">
+        <f>(SUM(G13)*2+G14)/2</f>
+        <v>0.55449999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1482,8 +1531,12 @@
         <f>LN(G19)</f>
         <v>-3.1465551632885749</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="1">
+        <f>(SUM(G17:G18)*2+G19)/2</f>
+        <v>0.97749999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1558,7 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1590,8 +1643,12 @@
         <f>LN(G23)</f>
         <v>-3.9780870011844598E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="1">
+        <f>(SUM(G22)*2+G23)/2</f>
+        <v>0.51949999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1614,7 +1671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1666,7 +1723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1698,8 +1755,12 @@
         <f>LN(G27)</f>
         <v>-1.2517634681622845</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="1">
+        <f>(SUM(G25:G26)*2+G27)/2</f>
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +1809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1774,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1800,7 +1861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1826,7 +1887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1852,7 +1913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +1939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1903,37 +1964,47 @@
       <c r="H35">
         <v>50</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>50</v>
+      </c>
+      <c r="F36" s="3">
+        <v>60</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="5">
+        <f>(SUM(G30:G35)*2+G36)/2</f>
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1941,25 +2012,22 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H37">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1973,19 +2041,19 @@
         <v>10</v>
       </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
       <c r="G38">
-        <v>0.17399999999999999</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H38">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1999,19 +2067,19 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>0.33500000000000002</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="H39">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2025,19 +2093,19 @@
         <v>10</v>
       </c>
       <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
         <v>20</v>
       </c>
-      <c r="F40">
-        <v>30</v>
-      </c>
       <c r="G40">
-        <v>0.26800000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H40">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2051,19 +2119,19 @@
         <v>10</v>
       </c>
       <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
         <v>30</v>
       </c>
-      <c r="F41">
-        <v>40</v>
-      </c>
       <c r="G41">
-        <v>0.13100000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="H41">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2077,26 +2145,19 @@
         <v>10</v>
       </c>
       <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
         <v>40</v>
       </c>
-      <c r="F42">
-        <v>50</v>
-      </c>
       <c r="G42">
-        <v>5.7000000000000002E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H42">
         <v>44</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="1">
-        <f>LN(G42)</f>
-        <v>-2.864704011147587</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2110,19 +2171,30 @@
         <v>10</v>
       </c>
       <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43">
         <v>50</v>
       </c>
-      <c r="F43">
-        <v>60</v>
-      </c>
       <c r="G43">
-        <v>2.3E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H43">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="1">
+        <f>LN(G43)</f>
+        <v>-2.864704011147587</v>
+      </c>
+      <c r="K43" s="1">
+        <f>(SUM(G38:G42)*2+G43)/2</f>
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2136,19 +2208,19 @@
         <v>10</v>
       </c>
       <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44">
         <v>60</v>
       </c>
-      <c r="F44">
-        <v>70</v>
-      </c>
       <c r="G44">
-        <v>5.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H44">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2162,42 +2234,45 @@
         <v>10</v>
       </c>
       <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45">
         <v>70</v>
       </c>
-      <c r="F45">
-        <v>80</v>
-      </c>
       <c r="G45">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
+      <c r="E46">
+        <v>70</v>
+      </c>
+      <c r="F46">
+        <v>80</v>
       </c>
       <c r="G46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2205,25 +2280,22 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
       </c>
       <c r="G47">
-        <v>2E-3</v>
-      </c>
-      <c r="H47">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2237,19 +2309,19 @@
         <v>10</v>
       </c>
       <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>1</v>
       </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
       <c r="G48">
-        <v>0.111</v>
+        <v>2E-3</v>
       </c>
       <c r="H48">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2263,19 +2335,19 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>0.27300000000000002</v>
+        <v>0.111</v>
       </c>
       <c r="H49">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2289,19 +2361,19 @@
         <v>10</v>
       </c>
       <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
         <v>20</v>
       </c>
-      <c r="F50">
-        <v>30</v>
-      </c>
       <c r="G50">
-        <v>0.23699999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="H50">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2315,19 +2387,19 @@
         <v>10</v>
       </c>
       <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
         <v>30</v>
       </c>
-      <c r="F51">
-        <v>40</v>
-      </c>
       <c r="G51">
-        <v>0.16900000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="H51">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2341,19 +2413,19 @@
         <v>10</v>
       </c>
       <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52">
         <v>40</v>
       </c>
-      <c r="F52">
-        <v>50</v>
-      </c>
       <c r="G52">
-        <v>0.104</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="H52">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -2367,19 +2439,19 @@
         <v>10</v>
       </c>
       <c r="E53">
+        <v>40</v>
+      </c>
+      <c r="F53">
         <v>50</v>
       </c>
-      <c r="F53">
-        <v>60</v>
-      </c>
       <c r="G53">
-        <v>5.0999999999999997E-2</v>
+        <v>0.104</v>
       </c>
       <c r="H53">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2393,19 +2465,19 @@
         <v>10</v>
       </c>
       <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54">
         <v>60</v>
       </c>
-      <c r="F54">
-        <v>70</v>
-      </c>
       <c r="G54">
-        <v>2.8000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H54">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2419,19 +2491,19 @@
         <v>10</v>
       </c>
       <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="F55">
         <v>70</v>
       </c>
-      <c r="F55">
-        <v>80</v>
-      </c>
       <c r="G55">
-        <v>1.7999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H55">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2445,26 +2517,19 @@
         <v>10</v>
       </c>
       <c r="E56">
+        <v>70</v>
+      </c>
+      <c r="F56">
         <v>80</v>
       </c>
-      <c r="F56">
-        <v>90</v>
-      </c>
       <c r="G56">
-        <v>5.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H56">
         <v>86</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="1">
-        <f>LN(G56)</f>
-        <v>-5.2983173665480363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2478,19 +2543,57 @@
         <v>10</v>
       </c>
       <c r="E57">
+        <v>80</v>
+      </c>
+      <c r="F57">
         <v>90</v>
       </c>
-      <c r="F57">
-        <v>100</v>
-      </c>
       <c r="G57">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H57">
         <v>86</v>
       </c>
+      <c r="I57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="1">
+        <f>LN(G57)</f>
+        <v>-5.2983173665480363</v>
+      </c>
+      <c r="K57" s="1">
+        <f>(SUM(G48:G56)*2+G57)/2</f>
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>90</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>2E-3</v>
+      </c>
+      <c r="H58">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>